--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,384 +512,522 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>010667</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>90.39</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000974</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信消费医药主题股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001268</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>75.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1058,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -940,15 +1098,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,26 +1126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007481</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏逸享健康灵活配置混合</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.26</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1052,15 +1250,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>89.80</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1108,15 +1326,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>28.84</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007133</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票A</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007134</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票C</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1192,15 +1440,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>86.77</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>007481</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>华夏逸享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>48.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>007133</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>嘉实长青竞争优势股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>750005</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信平稳增长混合A</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002035</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信平稳增长混合C</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008954</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合A</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010667</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合C</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>750005</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>安信平稳增长混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>007134</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
+          <t>嘉实长青竞争优势股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>31.46</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1658,26 +2076,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,6 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>89.14</t>
@@ -2100,6 +2100,1694 @@
       </c>
       <c r="H28" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3793,4 +3794,590 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4380,4 +4381,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4389,7 +4390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4400,17 +4401,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4420,14 +4441,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.91</v>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4436,14 +4479,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.67</v>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4452,14 +4517,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.78</v>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4468,13 +4555,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4674,7 +4675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4685,17 +4686,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4705,14 +4726,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4721,14 +4764,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.91</v>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4737,14 +4802,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.67</v>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4753,14 +4840,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>5.78</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="6">
@@ -4769,13 +4978,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4883,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4894,17 +4895,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4914,14 +4935,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4930,14 +4973,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4946,14 +5011,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.91</v>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4962,14 +5049,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.67</v>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4978,14 +5087,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.78</v>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4994,13 +5125,333 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.91</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>8.67</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>5.78</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.81</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1033,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1241,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1525,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2111,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3799,7 +4518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4874,7 +5593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000513-丽珠集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>2.71</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.55</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.91</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>8.67</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>5.78</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,616 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>8.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1220,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165526</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1752,7 +3247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2244,7 +3739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2830,7 +4325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4518,7 +6013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5591,590 +7086,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000577</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信价值精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9467</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>71.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9069</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>48.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3949</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3067</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000974</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信消费医药主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5054</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001268</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4815</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1336</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0866</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010667</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>